--- a/ARMA_model_computed_by_hand.xlsx
+++ b/ARMA_model_computed_by_hand.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\research_t\forecast_dec\ARIMA_model_hand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED4DC70-01B9-4F56-A3F6-F248F1BD2DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1AA411-DB5B-4464-8BA1-4655B504C5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7125E5B7-6BB1-42C0-BAC4-9474F25249FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{7125E5B7-6BB1-42C0-BAC4-9474F25249FF}"/>
   </bookViews>
   <sheets>
     <sheet name="arima(0,0,1)" sheetId="1" r:id="rId1"/>
     <sheet name="arima(1,0,1)" sheetId="2" r:id="rId2"/>
+    <sheet name="arima(1,0,0)" sheetId="4" r:id="rId3"/>
+    <sheet name="arima(1,1,0)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="56">
   <si>
     <t>Month</t>
   </si>
@@ -182,6 +184,30 @@
   <si>
     <t>Given and computed in python</t>
   </si>
+  <si>
+    <t>inter</t>
+  </si>
+  <si>
+    <t>ARIMA (1,1,0)</t>
+  </si>
+  <si>
+    <t>ARIMA (3,1,0)</t>
+  </si>
+  <si>
+    <t>ar1</t>
+  </si>
+  <si>
+    <t>pred_x</t>
+  </si>
+  <si>
+    <t>pred_z</t>
+  </si>
+  <si>
+    <t>ar2</t>
+  </si>
+  <si>
+    <t>ar3</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +246,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +256,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,15 +324,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFCCCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1816,6 +1887,1150 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115093</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EC3120-D913-4D95-AB31-FF37629C0D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="700881"/>
+          <a:ext cx="940593" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573881</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>315118</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABA2DB4-86CD-4F88-AF7B-8C2D9D144D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2999581" y="685800"/>
+          <a:ext cx="1252537" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>424657</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>529831</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F251112-6F7F-4006-836A-0C3D2D311E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2055813" y="1022349"/>
+          <a:ext cx="105174" cy="6552433"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613174</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462359</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731284C6-65EC-4795-B0A1-071F6757BA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2244330" y="1007268"/>
+          <a:ext cx="1361279" cy="6567514"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>631039</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>130973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335763</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DDA1AF-CA16-473E-B594-B13A13D69C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3774289" y="6988973"/>
+          <a:ext cx="1252537" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483402</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613BAE47-E843-4D77-BEAF-F7C517182D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400558" y="7310441"/>
+          <a:ext cx="4754" cy="452434"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461970</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>116685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392913</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770C5793-3035-4D62-953B-15B3269D753B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7879564" y="7165185"/>
+          <a:ext cx="1252537" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>697714</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>126210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>402438</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364C8211-5EEB-468C-BB3C-1C6557BDA9EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11949120" y="7365210"/>
+          <a:ext cx="1252537" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461970</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B3E3F8-429D-4CA6-BA2E-98CD269818AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5000625" y="7325919"/>
+          <a:ext cx="2878939" cy="484581"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>96444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>697714</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C3C8D9-6AFC-4CF9-BFBD-C992B9AFEA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5214937" y="7525944"/>
+          <a:ext cx="6734183" cy="379806"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>440541</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462C4FE5-2BF5-4A3B-A178-D3958D39457E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5822166" y="685829"/>
+          <a:ext cx="904865" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226227</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0761F898-3364-46B9-A577-8CCD08CAD070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9596446" y="707260"/>
+          <a:ext cx="976303" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>654845</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C20934C-1DCA-442D-AC8E-391C888B6F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334251" y="692972"/>
+          <a:ext cx="845344" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>714385</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28652FA3-57B6-440D-A7B9-D00349E604A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191885" y="678684"/>
+          <a:ext cx="1023927" cy="380971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>110331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E705F5BF-844E-4E51-B96B-835BC630F72C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763126" y="2015331"/>
+          <a:ext cx="2333624" cy="1294606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>186134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6639C05-7581-477E-8638-5CD190176397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9453562" y="2662634"/>
+          <a:ext cx="309564" cy="778272"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B10893-8704-4164-8D33-D107F9F9FB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12453938" y="2000250"/>
+          <a:ext cx="916781" cy="1294606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C09D13C-BDB3-49A4-96D4-531BF870CF6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12299156" y="2647553"/>
+          <a:ext cx="154782" cy="757634"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2116,7 +3331,7 @@
   <dimension ref="A2:S44"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2227,7 +3442,7 @@
         <v>295.053</v>
       </c>
       <c r="M4" s="4">
-        <f>+C4-(K4+J4*M3)</f>
+        <f t="shared" ref="M4:M37" si="1">+C4-(K4+J4*M3)</f>
         <v>-29.052999999999997</v>
       </c>
       <c r="N4" s="4"/>
@@ -2242,7 +3457,7 @@
         <v>303.82760000000002</v>
       </c>
       <c r="R4" s="4">
-        <f>C4-(P4+O4*R3)</f>
+        <f t="shared" ref="R4:R38" si="2">C4-(P4+O4*R3)</f>
         <v>-37.827600000000018</v>
       </c>
       <c r="S4" s="10" t="s">
@@ -2263,11 +3478,11 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F36" si="1">+F4</f>
+        <f t="shared" ref="F5:F36" si="3">+F4</f>
         <v>293.4597</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G37" si="2">F5+E5*H4</f>
+        <f t="shared" ref="G5:G37" si="4">F5+E5*H4</f>
         <v>284.09897824443198</v>
       </c>
       <c r="H5">
@@ -2282,11 +3497,11 @@
         <v>295.053</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L38" si="3">K5+J5*M4</f>
+        <f t="shared" ref="L5:L38" si="5">K5+J5*M4</f>
         <v>284.52259314181998</v>
       </c>
       <c r="M5">
-        <f>+C5-(K5+J5*M4)</f>
+        <f t="shared" si="1"/>
         <v>-138.62259314181998</v>
       </c>
       <c r="O5" s="5">
@@ -2296,11 +3511,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q39" si="4">P5+O5*R4</f>
+        <f t="shared" ref="Q5:Q39" si="6">P5+O5*R4</f>
         <v>290.97557416996403</v>
       </c>
       <c r="R5">
-        <f>C5-(P5+O5*R4)</f>
+        <f t="shared" si="2"/>
         <v>-145.07557416996403</v>
       </c>
     </row>
@@ -2318,11 +3533,11 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>246.3491276976834</v>
       </c>
       <c r="H6">
@@ -2333,15 +3548,15 @@
         <v>0.36245506</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6:K38" si="5">+K5</f>
+        <f t="shared" ref="K6:K38" si="7">+K5</f>
         <v>295.053</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>244.80853968542604</v>
       </c>
       <c r="M6">
-        <f>+C6-(K6+J6*M5)</f>
+        <f t="shared" si="1"/>
         <v>-61.708539685426047</v>
       </c>
       <c r="O6" s="5">
@@ -2351,11 +3566,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>254.53779502850614</v>
       </c>
       <c r="R6">
-        <f>C6-(P6+O6*R5)</f>
+        <f t="shared" si="2"/>
         <v>-71.437795028506144</v>
       </c>
     </row>
@@ -2373,30 +3588,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>271.89874027864823</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H36" si="6">C7-G7</f>
+        <f t="shared" ref="H7:H36" si="8">C7-G7</f>
         <v>-152.59874027864822</v>
       </c>
       <c r="J7" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K7" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
         <v>272.68642754580651</v>
       </c>
       <c r="M7">
-        <f>+C7-(K7+J7*M6)</f>
+        <f t="shared" si="1"/>
         <v>-153.3864275458065</v>
       </c>
       <c r="O7" s="5">
@@ -2406,11 +3621,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>279.55642268642004</v>
       </c>
       <c r="R7">
-        <f>C7-(P7+O7*R6)</f>
+        <f t="shared" si="2"/>
         <v>-160.25642268642002</v>
       </c>
     </row>
@@ -2428,30 +3643,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.44040088170615</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-61.140400881706142</v>
       </c>
       <c r="J8" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K8" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
         <v>239.45731320069905</v>
       </c>
       <c r="M8">
-        <f>+C8-(K8+J8*M7)</f>
+        <f t="shared" si="1"/>
         <v>-59.157313200699036</v>
       </c>
       <c r="O8" s="5">
@@ -2461,11 +3676,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>249.3800621230256</v>
       </c>
       <c r="R8">
-        <f>C8-(P8+O8*R7)</f>
+        <f t="shared" si="2"/>
         <v>-69.080062123025584</v>
       </c>
     </row>
@@ -2483,30 +3698,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>272.61758298205967</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-104.11758298205967</v>
       </c>
       <c r="J9" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K9" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
         <v>273.61113249440183</v>
       </c>
       <c r="M9">
-        <f>+C9-(K9+J9*M8)</f>
+        <f t="shared" si="1"/>
         <v>-105.11113249440183</v>
       </c>
       <c r="O9" s="5">
@@ -2516,11 +3731,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>280.35746859473994</v>
       </c>
       <c r="R9">
-        <f>C9-(P9+O9*R8)</f>
+        <f t="shared" si="2"/>
         <v>-111.85746859473994</v>
       </c>
     </row>
@@ -2538,30 +3753,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>257.96711544309215</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-26.167115443092143</v>
       </c>
       <c r="J10" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K10" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
         <v>256.95493816507366</v>
       </c>
       <c r="M10">
-        <f>+C10-(K10+J10*M9)</f>
+        <f t="shared" si="1"/>
         <v>-25.154938165073645</v>
       </c>
       <c r="O10" s="5">
@@ -2571,11 +3786,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>265.82373309694407</v>
       </c>
       <c r="R10">
-        <f>C10-(P10+O10*R9)</f>
+        <f t="shared" si="2"/>
         <v>-34.023733096944056</v>
       </c>
     </row>
@@ -2593,30 +3808,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>284.53960667018896</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-60.039606670188959</v>
       </c>
       <c r="J11" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K11" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
         <v>285.93546537808191</v>
       </c>
       <c r="M11">
-        <f>+C11-(K11+J11*M10)</f>
+        <f t="shared" si="1"/>
         <v>-61.435465378081915</v>
       </c>
       <c r="O11" s="5">
@@ -2626,11 +3841,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>292.26794787836991</v>
       </c>
       <c r="R11">
-        <f>C11-(P11+O11*R10)</f>
+        <f t="shared" si="2"/>
         <v>-67.76794787836991</v>
       </c>
     </row>
@@ -2648,30 +3863,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>272.99283210437903</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-80.192832104379022</v>
       </c>
       <c r="J12" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K12" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
         <v>272.7854047102594</v>
       </c>
       <c r="M12">
-        <f>+C12-(K12+J12*M11)</f>
+        <f t="shared" si="1"/>
         <v>-79.985404710259388</v>
       </c>
       <c r="O12" s="5">
@@ -2681,11 +3896,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>280.80326283397989</v>
       </c>
       <c r="R12">
-        <f>C12-(P12+O12*R11)</f>
+        <f t="shared" si="2"/>
         <v>-88.003262833979875</v>
       </c>
     </row>
@@ -2703,30 +3918,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>266.12281037192423</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-143.22281037192423</v>
       </c>
       <c r="J13" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K13" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
         <v>266.06188533661867</v>
       </c>
       <c r="M13">
-        <f>+C13-(K13+J13*M12)</f>
+        <f t="shared" si="1"/>
         <v>-143.16188533661867</v>
       </c>
       <c r="O13" s="5">
@@ -2736,11 +3951,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>273.92826176363934</v>
       </c>
       <c r="R13">
-        <f>C13-(P13+O13*R12)</f>
+        <f t="shared" si="2"/>
         <v>-151.02826176363934</v>
       </c>
     </row>
@@ -2758,30 +3973,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>244.63655637708857</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>91.863443622911433</v>
       </c>
       <c r="J14" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K14" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
         <v>243.16325026060275</v>
       </c>
       <c r="M14">
-        <f>+C14-(K14+J14*M13)</f>
+        <f t="shared" si="1"/>
         <v>93.336749739397249</v>
       </c>
       <c r="O14" s="5">
@@ -2791,11 +4006,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>252.51535388204036</v>
       </c>
       <c r="R14">
-        <f>C14-(P14+O14*R13)</f>
+        <f t="shared" si="2"/>
         <v>83.984646117959642</v>
       </c>
     </row>
@@ -2813,30 +4028,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>324.77497785308583</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-138.87497785308582</v>
       </c>
       <c r="J15" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K15" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="3"/>
         <v>328.88337722699822</v>
       </c>
       <c r="M15">
-        <f>+C15-(K15+J15*M14)</f>
+        <f t="shared" si="1"/>
         <v>-142.98337722699821</v>
       </c>
       <c r="O15" s="5">
@@ -2846,11 +4061,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>332.36160271850315</v>
       </c>
       <c r="R15">
-        <f>C15-(P15+O15*R14)</f>
+        <f t="shared" si="2"/>
         <v>-146.46160271850314</v>
       </c>
     </row>
@@ -2868,30 +4083,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>246.11868656964919</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-51.818686569649174</v>
       </c>
       <c r="J16" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K16" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="3"/>
         <v>243.22795142818572</v>
       </c>
       <c r="M16">
-        <f>+C16-(K16+J16*M15)</f>
+        <f t="shared" si="1"/>
         <v>-48.927951428185708</v>
       </c>
       <c r="O16" s="5">
@@ -2901,11 +4116,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>254.06688821160549</v>
       </c>
       <c r="R16">
-        <f>C16-(P16+O16*R15)</f>
+        <f t="shared" si="2"/>
         <v>-59.766888211605476</v>
       </c>
     </row>
@@ -2923,30 +4138,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>275.79525695373678</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-126.29525695373678</v>
       </c>
       <c r="J17" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K17" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
         <v>277.31881642941988</v>
       </c>
       <c r="M17">
-        <f>+C17-(K17+J17*M16)</f>
+        <f t="shared" si="1"/>
         <v>-127.81881642941988</v>
       </c>
       <c r="O17" s="5">
@@ -2956,11 +4171,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>283.52164373852884</v>
       </c>
       <c r="R17">
-        <f>C17-(P17+O17*R16)</f>
+        <f t="shared" si="2"/>
         <v>-134.02164373852884</v>
       </c>
     </row>
@@ -2978,30 +4193,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250.40698058238456</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-40.306980582384568</v>
       </c>
       <c r="J18" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K18" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="3"/>
         <v>248.72442322194564</v>
       </c>
       <c r="M18">
-        <f>+C18-(K18+J18*M17)</f>
+        <f t="shared" si="1"/>
         <v>-38.624423221945648</v>
       </c>
       <c r="O18" s="5">
@@ -3011,11 +4226,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>258.29339674334472</v>
       </c>
       <c r="R18">
-        <f>C18-(P18+O18*R17)</f>
+        <f t="shared" si="2"/>
         <v>-48.193396743344721</v>
       </c>
     </row>
@@ -3033,30 +4248,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>279.71947596118002</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-6.4194759611800123</v>
       </c>
       <c r="J19" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K19" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="3"/>
         <v>281.05338236362428</v>
       </c>
       <c r="M19">
-        <f>+C19-(K19+J19*M18)</f>
+        <f t="shared" si="1"/>
         <v>-7.7533823636242687</v>
       </c>
       <c r="O19" s="5">
@@ -3066,11 +4281,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>287.45376767168312</v>
       </c>
       <c r="R19">
-        <f>C19-(P19+O19*R18)</f>
+        <f t="shared" si="2"/>
         <v>-14.153767671683113</v>
       </c>
     </row>
@@ -3088,30 +4303,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>291.27136843449989</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-99.871368434499885</v>
       </c>
       <c r="J20" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K20" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="3"/>
         <v>292.24274733018962</v>
       </c>
       <c r="M20">
-        <f>+C20-(K20+J20*M19)</f>
+        <f t="shared" si="1"/>
         <v>-100.84274733018961</v>
       </c>
       <c r="O20" s="5">
@@ -3121,11 +4336,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>299.01882049221206</v>
       </c>
       <c r="R20">
-        <f>C20-(P20+O20*R19)</f>
+        <f t="shared" si="2"/>
         <v>-107.61882049221205</v>
       </c>
     </row>
@@ -3143,30 +4358,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>259.41460514232966</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27.585394857670337</v>
       </c>
       <c r="J21" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K21" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="3"/>
         <v>258.5020359658713</v>
       </c>
       <c r="M21">
-        <f>+C21-(K21+J21*M20)</f>
+        <f t="shared" si="1"/>
         <v>28.497964034128699</v>
       </c>
       <c r="O21" s="5">
@@ -3176,11 +4391,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>267.26382485264946</v>
       </c>
       <c r="R21">
-        <f>C21-(P21+O21*R20)</f>
+        <f t="shared" si="2"/>
         <v>19.736175147350536</v>
       </c>
     </row>
@@ -3198,30 +4413,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>302.86326980521011</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-76.863269805210109</v>
       </c>
       <c r="J22" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K22" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="3"/>
         <v>305.38223126386794</v>
       </c>
       <c r="M22">
-        <f>+C22-(K22+J22*M21)</f>
+        <f t="shared" si="1"/>
         <v>-79.382231263867936</v>
       </c>
       <c r="O22" s="5">
@@ -3231,11 +4446,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>310.53301701772949</v>
       </c>
       <c r="R22">
-        <f>C22-(P22+O22*R21)</f>
+        <f t="shared" si="2"/>
         <v>-84.533017017729492</v>
       </c>
     </row>
@@ -3253,30 +4468,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>267.257822999533</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>36.342177000467018</v>
       </c>
       <c r="J23" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K23" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="3"/>
         <v>266.28050860432086</v>
       </c>
       <c r="M23">
-        <f>+C23-(K23+J23*M22)</f>
+        <f t="shared" si="1"/>
         <v>37.319491395679165</v>
       </c>
       <c r="O23" s="5">
@@ -3286,11 +4501,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>275.10728683705202</v>
       </c>
       <c r="R23">
-        <f>C23-(P23+O23*R22)</f>
+        <f t="shared" si="2"/>
         <v>28.492713162948007</v>
       </c>
     </row>
@@ -3308,30 +4523,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>305.84836436607009</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-15.948364366070109</v>
       </c>
       <c r="J24" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K24" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
         <v>308.5796384929904</v>
       </c>
       <c r="M24">
-        <f>+C24-(K24+J24*M23)</f>
+        <f t="shared" si="1"/>
         <v>-18.679638492990421</v>
       </c>
       <c r="O24" s="5">
@@ -3341,11 +4556,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>313.50807366309294</v>
       </c>
       <c r="R24">
-        <f>C24-(P24+O24*R23)</f>
+        <f t="shared" si="2"/>
         <v>-23.608073663092966</v>
       </c>
     </row>
@@ -3363,30 +4578,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>288.0230710023344</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>133.57692899766562</v>
       </c>
       <c r="J25" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K25" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="3"/>
         <v>288.28247050924483</v>
       </c>
       <c r="M25">
-        <f>+C25-(K25+J25*M24)</f>
+        <f t="shared" si="1"/>
         <v>133.31752949075519</v>
       </c>
       <c r="O25" s="5">
@@ -3396,11 +4611,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>295.80669535589192</v>
       </c>
       <c r="R25">
-        <f>C25-(P25+O25*R24)</f>
+        <f t="shared" si="2"/>
         <v>125.7933046441081</v>
       </c>
     </row>
@@ -3418,30 +4633,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>338.99466452293399</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-74.494664522933988</v>
       </c>
       <c r="J26" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K26" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="3"/>
         <v>343.37461315062342</v>
       </c>
       <c r="M26">
-        <f>+C26-(K26+J26*M25)</f>
+        <f t="shared" si="1"/>
         <v>-78.874613150623418</v>
       </c>
       <c r="O26" s="5">
@@ -3451,11 +4666,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>346.56620357336089</v>
       </c>
       <c r="R26">
-        <f>C26-(P26+O26*R25)</f>
+        <f t="shared" si="2"/>
         <v>-82.066203573360895</v>
       </c>
     </row>
@@ -3473,30 +4688,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>268.06525552778919</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>74.234744472210821</v>
       </c>
       <c r="J27" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K27" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="3"/>
         <v>266.464497358014</v>
       </c>
       <c r="M27">
-        <f>+C27-(K27+J27*M26)</f>
+        <f t="shared" si="1"/>
         <v>75.835502641986011</v>
       </c>
       <c r="O27" s="5">
@@ -3506,11 +4721,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>275.94539314315932</v>
       </c>
       <c r="R27">
-        <f>C27-(P27+O27*R26)</f>
+        <f t="shared" si="2"/>
         <v>66.354606856840689</v>
       </c>
     </row>
@@ -3528,30 +4743,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>318.76554047167502</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20.934459528324965</v>
       </c>
       <c r="J28" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K28" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="3"/>
         <v>322.5399616602312</v>
       </c>
       <c r="M28">
-        <f>+C28-(K28+J28*M27)</f>
+        <f t="shared" si="1"/>
         <v>17.160038339768789</v>
       </c>
       <c r="O28" s="5">
@@ -3561,11 +4776,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>326.37175086513554</v>
       </c>
       <c r="R28">
-        <f>C28-(P28+O28*R27)</f>
+        <f t="shared" si="2"/>
         <v>13.32824913486445</v>
       </c>
     </row>
@@ -3583,30 +4798,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300.59603618531338</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>139.8039638146866</v>
       </c>
       <c r="J29" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K29" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="3"/>
         <v>301.27274272604319</v>
       </c>
       <c r="M29">
-        <f>+C29-(K29+J29*M28)</f>
+        <f t="shared" si="1"/>
         <v>139.12725727395679</v>
       </c>
       <c r="O29" s="5">
@@ -3616,11 +4831,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>308.35590743030048</v>
       </c>
       <c r="R29">
-        <f>C29-(P29+O29*R28)</f>
+        <f t="shared" si="2"/>
         <v>132.0440925696995</v>
       </c>
     </row>
@@ -3638,30 +4853,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>341.11739493456878</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-25.217394934568802</v>
       </c>
       <c r="J30" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K30" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="3"/>
         <v>345.48037838286746</v>
       </c>
       <c r="M30">
-        <f>+C30-(K30+J30*M29)</f>
+        <f t="shared" si="1"/>
         <v>-29.58037838286748</v>
       </c>
       <c r="O30" s="5">
@@ -3671,11 +4886,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>348.68992508563701</v>
       </c>
       <c r="R30">
-        <f>C30-(P30+O30*R29)</f>
+        <f t="shared" si="2"/>
         <v>-32.789925085637037</v>
       </c>
     </row>
@@ -3693,30 +4908,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>284.86335636249601</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>154.43664363750401</v>
       </c>
       <c r="J31" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K31" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="3"/>
         <v>284.33144217841505</v>
       </c>
       <c r="M31">
-        <f>+C31-(K31+J31*M30)</f>
+        <f t="shared" si="1"/>
         <v>154.96855782158497</v>
       </c>
       <c r="O31" s="5">
@@ -3726,11 +4941,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>292.68713737045039</v>
       </c>
       <c r="R31">
-        <f>C31-(P31+O31*R30)</f>
+        <f t="shared" si="2"/>
         <v>146.61286262954962</v>
       </c>
     </row>
@@ -3748,30 +4963,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>346.10552096506831</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>55.194479034931703</v>
       </c>
       <c r="J32" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K32" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="3"/>
         <v>351.22213792333605</v>
       </c>
       <c r="M32">
-        <f>+C32-(K32+J32*M31)</f>
+        <f t="shared" si="1"/>
         <v>50.077862076663962</v>
       </c>
       <c r="O32" s="5">
@@ -3781,11 +4996,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>353.63970273796099</v>
       </c>
       <c r="R32">
-        <f>C32-(P32+O32*R31)</f>
+        <f t="shared" si="2"/>
         <v>47.660297262039023</v>
       </c>
     </row>
@@ -3803,30 +5018,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>312.27491504930958</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>125.12508495069039</v>
       </c>
       <c r="J33" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K33" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="3"/>
         <v>313.20397450366897</v>
       </c>
       <c r="M33">
-        <f>+C33-(K33+J33*M32)</f>
+        <f t="shared" si="1"/>
         <v>124.196025496331</v>
       </c>
       <c r="O33" s="5">
@@ -3836,11 +5051,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>320.02031038815363</v>
       </c>
       <c r="R33">
-        <f>C33-(P33+O33*R32)</f>
+        <f t="shared" si="2"/>
         <v>117.37968961184635</v>
       </c>
     </row>
@@ -3859,15 +5074,15 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>336.11352013879326</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>239.38647986120674</v>
       </c>
       <c r="I34" s="4"/>
@@ -3875,15 +5090,15 @@
         <v>0.36245506</v>
       </c>
       <c r="K34" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="3"/>
         <v>340.06847787303417</v>
       </c>
       <c r="M34">
-        <f>+C34-(K34+J34*M33)</f>
+        <f t="shared" si="1"/>
         <v>235.43152212696583</v>
       </c>
       <c r="N34" s="4"/>
@@ -3894,11 +5109,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>343.70765590661472</v>
       </c>
       <c r="R34">
-        <f>C34-(P34+O34*R33)</f>
+        <f t="shared" si="2"/>
         <v>231.79234409338528</v>
       </c>
     </row>
@@ -3916,30 +5131,30 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>375.06402306345802</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32.535976936541999</v>
       </c>
       <c r="J35" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K35" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="3"/>
         <v>380.38634647842071</v>
       </c>
       <c r="M35">
-        <f>+C35-(K35+J35*M34)</f>
+        <f t="shared" si="1"/>
         <v>27.213653521579317</v>
       </c>
       <c r="O35" s="5">
@@ -3949,11 +5164,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>382.57965388374578</v>
       </c>
       <c r="R35">
-        <f>C35-(P35+O35*R34)</f>
+        <f t="shared" si="2"/>
         <v>25.020346116254245</v>
       </c>
     </row>
@@ -3972,15 +5187,15 @@
         <v>0.34088943999999999</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293.4597</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>304.5508709577507</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>377.4491290422493</v>
       </c>
       <c r="I36" s="4"/>
@@ -3988,15 +5203,15 @@
         <v>0.36245506</v>
       </c>
       <c r="K36" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="3"/>
         <v>304.91672641998326</v>
       </c>
       <c r="M36">
-        <f>+C36-(K36+J36*M35)</f>
+        <f t="shared" si="1"/>
         <v>377.08327358001674</v>
       </c>
       <c r="N36" s="4"/>
@@ -4007,11 +5222,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>312.32832789610075</v>
       </c>
       <c r="R36">
-        <f>C36-(P36+O36*R35)</f>
+        <f t="shared" si="2"/>
         <v>369.67167210389925</v>
       </c>
     </row>
@@ -4033,22 +5248,22 @@
         <v>293.4597</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>422.12812222770009</v>
       </c>
       <c r="J37" s="5">
         <v>0.36245506</v>
       </c>
       <c r="K37" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="3"/>
         <v>431.72874055044139</v>
       </c>
       <c r="M37">
-        <f>+C37-(K37+J37*M36)</f>
+        <f t="shared" si="1"/>
         <v>43.571259449558625</v>
       </c>
       <c r="O37" s="5">
@@ -4058,11 +5273,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>429.42451544036396</v>
       </c>
       <c r="R37">
-        <f>C37-(P37+O37*R36)</f>
+        <f t="shared" si="2"/>
         <v>45.87548455963605</v>
       </c>
     </row>
@@ -4084,11 +5299,11 @@
         <v>0.36245506</v>
       </c>
       <c r="K38" s="5">
+        <f t="shared" si="7"/>
+        <v>295.053</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="5"/>
-        <v>295.053</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="3"/>
         <v>310.84562345806535</v>
       </c>
       <c r="N38" s="4"/>
@@ -4099,11 +5314,11 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>319.41391561415105</v>
       </c>
       <c r="R38">
-        <f>C38-(P38+O38*R37)</f>
+        <f t="shared" si="2"/>
         <v>261.8860843858489</v>
       </c>
     </row>
@@ -4128,7 +5343,7 @@
         <v>303.82760000000002</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>392.80408069277246</v>
       </c>
     </row>
@@ -4154,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24557F06-EE5A-47A2-B02B-F74A929A0E20}">
   <dimension ref="A2:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4260,10 +5475,10 @@
         <f t="shared" ref="F4:F36" si="0">E4*(1-G4)</f>
         <v>8.9813518151195382</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4">
         <v>0.97420613</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4">
         <v>-0.58599915599999997</v>
       </c>
       <c r="I4">
@@ -4281,10 +5496,10 @@
         <f t="shared" ref="M4:M36" si="1">L4*(1-N4)</f>
         <v>9.0336391121740007</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4">
         <v>0.97323755199999995</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4">
         <v>-0.60802571699999997</v>
       </c>
       <c r="P4">
@@ -4302,10 +5517,10 @@
         <f t="shared" ref="T4:T36" si="2">S4*(1-U4)</f>
         <v>8.1237263930564119</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4">
         <v>0.97688507300000005</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4">
         <v>-0.60056331500000004</v>
       </c>
       <c r="W4">
@@ -4344,7 +5559,7 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I5">
-        <f>F5+ $G$4*C4 + $H$4*J4</f>
+        <f>F5+ G5*C4 + H5*J4</f>
         <v>316.28763823273164</v>
       </c>
       <c r="J5" s="5">
@@ -4427,11 +5642,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I37" si="9">F6+ $G$4*C5 + $H$4*J5</f>
+        <f>F6+ G6*C5 + H6*J5</f>
         <v>250.96503837933358</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J36" si="10">+C6 - ($F$5 + $G$5*C5 + $H$5*J5)</f>
+        <f t="shared" ref="J6:J36" si="9">+C6 - ($F$5 + $G$5*C5 + $H$5*J5)</f>
         <v>-67.865038379333583</v>
       </c>
       <c r="L6" s="5">
@@ -4443,15 +5658,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N37" si="11">+N5</f>
+        <f t="shared" ref="N6:N37" si="10">+N5</f>
         <v>0.97323755199999995</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O37" si="12">+O5</f>
+        <f t="shared" ref="O6:O37" si="11">+O5</f>
         <v>-0.60802571699999997</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P38" si="13">M6 + N6*C5 + O6*Q5</f>
+        <f t="shared" ref="P6:P38" si="12">M6 + N6*C5 + O6*Q5</f>
         <v>251.66849969117749</v>
       </c>
       <c r="Q6" s="5">
@@ -4467,19 +5682,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U38" si="14">+U5</f>
+        <f t="shared" ref="U6:U38" si="13">+U5</f>
         <v>0.97688507300000005</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V38" si="15">+V5</f>
+        <f t="shared" ref="V6:V38" si="14">+V5</f>
         <v>-0.60056331500000004</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W39" si="16">T6 + U6*C5 + V6*X5</f>
+        <f t="shared" ref="W6:W39" si="15">T6 + U6*C5 + V6*X5</f>
         <v>254.78467884207996</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" ref="X6:X38" si="17">C6-W6</f>
+        <f t="shared" ref="X6:X38" si="16">C6-W6</f>
         <v>-71.684678842079961</v>
       </c>
     </row>
@@ -4510,11 +5725,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I7">
+        <f>F7+ G7*C6 + H7*J6</f>
+        <v>227.1273494303166</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="9"/>
-        <v>227.1273494303166</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="10"/>
         <v>-107.8273494303166</v>
       </c>
       <c r="L7" s="5">
@@ -4526,15 +5741,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N7">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O7">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="13"/>
         <v>228.92484607171644</v>
       </c>
       <c r="Q7" s="5">
@@ -4550,19 +5765,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U7">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V7">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W7">
+        <v>230.04257161946632</v>
+      </c>
+      <c r="X7" s="5">
         <f t="shared" si="16"/>
-        <v>230.04257161946632</v>
-      </c>
-      <c r="X7" s="5">
-        <f t="shared" si="17"/>
         <v>-110.74257161946632</v>
       </c>
     </row>
@@ -4593,11 +5808,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I8">
+        <f>F8+ G8*C7 + H8*J7</f>
+        <v>188.39087888400215</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="9"/>
-        <v>188.39087888400215</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="10"/>
         <v>-8.0908788840021373</v>
       </c>
       <c r="L8" s="5">
@@ -4609,15 +5824,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N8">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O8">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="13"/>
         <v>191.79560469954401</v>
       </c>
       <c r="Q8" s="5">
@@ -4633,23 +5848,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U8">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V8">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W8">
+        <v>191.17404152536804</v>
+      </c>
+      <c r="X8" s="5">
         <f t="shared" si="16"/>
-        <v>191.17404152536804</v>
-      </c>
-      <c r="X8" s="5">
-        <f t="shared" si="17"/>
         <v>-10.874041525368028</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4676,11 +5891,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I9">
+        <f>F9+ G9*C8 + H9*J8</f>
+        <v>189.37196525144302</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="9"/>
-        <v>189.37196525144302</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="10"/>
         <v>-20.871965251443015</v>
       </c>
       <c r="L9" s="5">
@@ -4692,15 +5907,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N9">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O9">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="13"/>
         <v>191.49799302756281</v>
       </c>
       <c r="Q9" s="5">
@@ -4716,23 +5931,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U9">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V9">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W9">
+        <v>190.78665548087912</v>
+      </c>
+      <c r="X9" s="5">
         <f t="shared" si="16"/>
-        <v>190.78665548087912</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="17"/>
         <v>-22.286655480879119</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4759,11 +5974,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I10">
+        <f>F10+ G10*C9 + H10*J9</f>
+        <v>185.36603874152649</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="9"/>
-        <v>185.36603874152649</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="10"/>
         <v>46.433961258473516</v>
       </c>
       <c r="L10" s="5">
@@ -4775,15 +5990,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N10">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O10">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="13"/>
         <v>187.00753782431889</v>
       </c>
       <c r="Q10" s="5">
@@ -4799,23 +6014,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U10">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V10">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W10">
+        <v>186.11340888941609</v>
+      </c>
+      <c r="X10" s="5">
         <f t="shared" si="16"/>
-        <v>186.11340888941609</v>
-      </c>
-      <c r="X10" s="5">
-        <f t="shared" si="17"/>
         <v>45.686591110583919</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4842,11 +6057,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I11">
+        <f>F11+ G11*C10 + H11*J10</f>
+        <v>207.59207064191739</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="9"/>
-        <v>207.59207064191739</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="10"/>
         <v>16.907929358082612</v>
       </c>
       <c r="L11" s="5">
@@ -4858,15 +6073,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N11">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O11">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="13"/>
         <v>207.39513473521009</v>
       </c>
       <c r="Q11" s="5">
@@ -4882,23 +6097,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U11">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V11">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W11">
+        <v>207.12799570603462</v>
+      </c>
+      <c r="X11" s="5">
         <f t="shared" si="16"/>
-        <v>207.12799570603462</v>
-      </c>
-      <c r="X11" s="5">
-        <f t="shared" si="17"/>
         <v>17.372004293965375</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4925,11 +6140,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I12">
-        <f>$G$4*C11 + $H$4*J11</f>
-        <v>208.80124385145595</v>
+        <f>F12+ G12*C11 + H12*J11</f>
+        <v>217.7825956665755</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-24.982595666575492</v>
       </c>
       <c r="L12" s="5">
@@ -4941,15 +6156,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N12">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O12">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="13"/>
         <v>217.12527156936173</v>
       </c>
       <c r="Q12" s="5">
@@ -4965,23 +6180,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U12">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V12">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W12">
+        <v>217.00143679457835</v>
+      </c>
+      <c r="X12" s="5">
         <f t="shared" si="16"/>
-        <v>217.00143679457835</v>
-      </c>
-      <c r="X12" s="5">
-        <f t="shared" si="17"/>
         <v>-24.201436794578342</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5008,11 +6223,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I13">
+        <f>F13+ G13*C12 + H13*J12</f>
+        <v>211.44807365442207</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="9"/>
-        <v>211.44807365442207</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="10"/>
         <v>-88.548073654422069</v>
       </c>
       <c r="L13" s="5">
@@ -5024,15 +6239,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N13">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O13">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="13"/>
         <v>211.46422982495486</v>
       </c>
       <c r="Q13" s="5">
@@ -5048,23 +6263,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U13">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V13">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W13">
+        <v>211.00166357657139</v>
+      </c>
+      <c r="X13" s="5">
         <f t="shared" si="16"/>
-        <v>211.00166357657139</v>
-      </c>
-      <c r="X13" s="5">
-        <f t="shared" si="17"/>
         <v>-88.101663576571383</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5091,11 +6306,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I14">
+        <f t="shared" ref="I14:I37" si="17">F14+ G14*C13 + H14*J13</f>
+        <v>180.60038161903668</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="9"/>
-        <v>180.60038161903668</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="10"/>
         <v>155.89961838096332</v>
       </c>
       <c r="L14" s="5">
@@ -5107,15 +6322,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N14">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O14">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="13"/>
         <v>182.49386359284495</v>
       </c>
       <c r="Q14" s="5">
@@ -5131,23 +6346,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U14">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V14">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W14">
+        <v>181.0935289993169</v>
+      </c>
+      <c r="X14" s="5">
         <f t="shared" si="16"/>
-        <v>181.0935289993169</v>
-      </c>
-      <c r="X14" s="5">
-        <f t="shared" si="17"/>
         <v>155.4064710006831</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5174,11 +6389,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I15">
+        <f t="shared" si="17"/>
+        <v>245.44466976815295</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="9"/>
-        <v>245.44466976815295</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="10"/>
         <v>-59.544669768152943</v>
       </c>
       <c r="L15" s="5">
@@ -5190,15 +6405,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N15">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O15">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="13"/>
         <v>242.88838384881376</v>
       </c>
       <c r="Q15" s="5">
@@ -5214,23 +6429,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U15">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V15">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W15">
+        <v>243.51412806093481</v>
+      </c>
+      <c r="X15" s="5">
         <f t="shared" si="16"/>
-        <v>243.51412806093481</v>
-      </c>
-      <c r="X15" s="5">
-        <f t="shared" si="17"/>
         <v>-57.614128060934803</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5257,11 +6472,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I16">
+        <f t="shared" si="17"/>
+        <v>224.97939761055588</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="9"/>
-        <v>224.97939761055588</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="10"/>
         <v>-30.679397610555867</v>
       </c>
       <c r="L16" s="5">
@@ -5273,15 +6488,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N16">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O16">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="13"/>
         <v>224.60890297932019</v>
       </c>
       <c r="Q16" s="5">
@@ -5297,23 +6512,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U16">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V16">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W16">
+        <v>224.32759320286596</v>
+      </c>
+      <c r="X16" s="5">
         <f t="shared" si="16"/>
-        <v>224.32759320286596</v>
-      </c>
-      <c r="X16" s="5">
-        <f t="shared" si="17"/>
         <v>-30.027593202865944</v>
       </c>
     </row>
-    <row r="17" spans="1:24" hidden="1">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5340,11 +6555,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I17">
+        <f t="shared" si="17"/>
+        <v>216.24770398049367</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="9"/>
-        <v>216.24770398049367</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="10"/>
         <v>-66.747703980493668</v>
       </c>
       <c r="L17" s="5">
@@ -5356,15 +6571,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N17">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O17">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="13"/>
         <v>216.5622879312586</v>
       </c>
       <c r="Q17" s="5">
@@ -5380,23 +6595,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U17">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V17">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W17">
+        <v>215.96596699234107</v>
+      </c>
+      <c r="X17" s="5">
         <f t="shared" si="16"/>
-        <v>215.96596699234107</v>
-      </c>
-      <c r="X17" s="5">
-        <f t="shared" si="17"/>
         <v>-66.465966992341066</v>
       </c>
     </row>
-    <row r="18" spans="1:24" hidden="1">
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5423,11 +6638,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I18">
+        <f t="shared" si="17"/>
+        <v>193.73926644762668</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="9"/>
-        <v>193.73926644762668</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="10"/>
         <v>16.360733552373318</v>
       </c>
       <c r="L18" s="5">
@@ -5439,15 +6654,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N18">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O18">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="13"/>
         <v>195.30824883923793</v>
       </c>
       <c r="Q18" s="5">
@@ -5463,23 +6678,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U18">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V18">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W18">
+        <v>194.08506627815734</v>
+      </c>
+      <c r="X18" s="5">
         <f t="shared" si="16"/>
-        <v>194.08506627815734</v>
-      </c>
-      <c r="X18" s="5">
-        <f t="shared" si="17"/>
         <v>16.014933721842652</v>
       </c>
     </row>
-    <row r="19" spans="1:24" hidden="1">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5506,11 +6721,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I19">
+        <f t="shared" si="17"/>
+        <v>204.07468367488786</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="9"/>
-        <v>204.07468367488786</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="10"/>
         <v>69.225316325112146</v>
       </c>
       <c r="L19" s="5">
@@ -5522,15 +6737,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N19">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O19">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="13"/>
         <v>204.51708368216606</v>
       </c>
       <c r="Q19" s="5">
@@ -5546,23 +6761,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U19">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V19">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W19">
+        <v>203.74929854486129</v>
+      </c>
+      <c r="X19" s="5">
         <f t="shared" si="16"/>
-        <v>203.74929854486129</v>
-      </c>
-      <c r="X19" s="5">
-        <f t="shared" si="17"/>
         <v>69.550701455138721</v>
       </c>
     </row>
-    <row r="20" spans="1:24" hidden="1">
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5589,11 +6804,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I20">
+        <f t="shared" si="17"/>
+        <v>234.66591020377078</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="9"/>
-        <v>234.66591020377078</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="10"/>
         <v>-43.265910203770773</v>
       </c>
       <c r="L20" s="5">
@@ -5605,15 +6820,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N20">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O20">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="13"/>
         <v>233.19768006227198</v>
       </c>
       <c r="Q20" s="5">
@@ -5629,23 +6844,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U20">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V20">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W20">
+        <v>233.33681701748299</v>
+      </c>
+      <c r="X20" s="5">
         <f t="shared" si="16"/>
-        <v>233.33681701748299</v>
-      </c>
-      <c r="X20" s="5">
-        <f t="shared" si="17"/>
         <v>-41.93681701748298</v>
       </c>
     </row>
-    <row r="21" spans="1:24" hidden="1">
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -5672,11 +6887,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I21">
+        <f t="shared" si="17"/>
+        <v>220.79819196010101</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="9"/>
-        <v>220.79819196010101</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="10"/>
         <v>66.201808039898992</v>
       </c>
       <c r="L21" s="5">
@@ -5688,15 +6903,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N21">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O21">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="13"/>
         <v>220.72537095377351</v>
       </c>
       <c r="Q21" s="5">
@@ -5712,23 +6927,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U21">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V21">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W21">
+        <v>220.28524321382443</v>
+      </c>
+      <c r="X21" s="5">
         <f t="shared" si="16"/>
-        <v>220.28524321382443</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" si="17"/>
         <v>66.71475678617557</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1">
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -5755,11 +6970,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I22">
+        <f t="shared" si="17"/>
+        <v>249.78430748806471</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="9"/>
-        <v>249.78430748806471</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="10"/>
         <v>-23.784307488064712</v>
       </c>
       <c r="L22" s="5">
@@ -5771,15 +6986,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N22">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O22">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="13"/>
         <v>248.05613769143309</v>
       </c>
       <c r="Q22" s="5">
@@ -5795,23 +7010,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U22">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V22">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W22">
+        <v>248.42330684913208</v>
+      </c>
+      <c r="X22" s="5">
         <f t="shared" si="16"/>
-        <v>248.42330684913208</v>
-      </c>
-      <c r="X22" s="5">
-        <f t="shared" si="17"/>
         <v>-22.423306849132075</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1">
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -5838,11 +7053,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I23">
+        <f t="shared" si="17"/>
+        <v>243.08952130916995</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="9"/>
-        <v>243.08952130916995</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="10"/>
         <v>60.51047869083007</v>
       </c>
       <c r="L23" s="5">
@@ -5854,15 +7069,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N23">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O23">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="13"/>
         <v>242.39602479825834</v>
       </c>
       <c r="Q23" s="5">
@@ -5878,23 +7093,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U23">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V23">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W23">
+        <v>242.36636838563339</v>
+      </c>
+      <c r="X23" s="5">
         <f t="shared" si="16"/>
-        <v>242.36636838563339</v>
-      </c>
-      <c r="X23" s="5">
-        <f t="shared" si="17"/>
         <v>61.233631614366629</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1">
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -5921,11 +7136,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I24">
+        <f t="shared" si="17"/>
+        <v>269.29124344113711</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="9"/>
-        <v>269.29124344113711</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="10"/>
         <v>20.608756558862865</v>
       </c>
       <c r="L24" s="5">
@@ -5937,15 +7152,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N24">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O24">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="13"/>
         <v>267.2949689940848</v>
       </c>
       <c r="Q24" s="5">
@@ -5961,23 +7176,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U24">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V24">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W24">
+        <v>267.93136176404363</v>
+      </c>
+      <c r="X24" s="5">
         <f t="shared" si="16"/>
-        <v>267.93136176404363</v>
-      </c>
-      <c r="X24" s="5">
-        <f t="shared" si="17"/>
         <v>21.968638235956348</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1">
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -6004,11 +7219,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I25">
+        <f t="shared" si="17"/>
+        <v>279.32699495241638</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="9"/>
-        <v>279.32699495241638</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="10"/>
         <v>142.27300504758364</v>
       </c>
       <c r="L25" s="5">
@@ -6020,15 +7235,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N25">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O25">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="13"/>
         <v>277.43076525179515</v>
       </c>
       <c r="Q25" s="5">
@@ -6044,23 +7259,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U25">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V25">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W25">
+        <v>278.12915085073473</v>
+      </c>
+      <c r="X25" s="5">
         <f t="shared" si="16"/>
-        <v>278.12915085073473</v>
-      </c>
-      <c r="X25" s="5">
-        <f t="shared" si="17"/>
         <v>143.47084914926529</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1">
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -6087,11 +7302,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I26">
+        <f t="shared" si="17"/>
+        <v>336.33479534365176</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="9"/>
-        <v>336.33479534365176</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="10"/>
         <v>-71.834795343651763</v>
       </c>
       <c r="L26" s="5">
@@ -6103,15 +7318,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N26">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O26">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="13"/>
         <v>331.69198870825545</v>
       </c>
       <c r="Q26" s="5">
@@ -6127,23 +7342,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U26">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V26">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W26">
+        <v>333.81514439890873</v>
+      </c>
+      <c r="X26" s="5">
         <f t="shared" si="16"/>
-        <v>333.81514439890873</v>
-      </c>
-      <c r="X26" s="5">
-        <f t="shared" si="17"/>
         <v>-69.315144398908728</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1">
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -6170,11 +7385,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I27">
+        <f t="shared" si="17"/>
+        <v>308.75400264293216</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="9"/>
-        <v>308.75400264293216</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="10"/>
         <v>33.545997357067847</v>
       </c>
       <c r="L27" s="5">
@@ -6186,15 +7401,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N27">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O27">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="13"/>
         <v>307.3094287271669</v>
       </c>
       <c r="Q27" s="5">
@@ -6210,23 +7425,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U27">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V27">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W27">
+        <v>308.13796110146876</v>
+      </c>
+      <c r="X27" s="5">
         <f t="shared" si="16"/>
-        <v>308.13796110146876</v>
-      </c>
-      <c r="X27" s="5">
-        <f t="shared" si="17"/>
         <v>34.16203889853125</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1">
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -6253,11 +7468,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I28">
+        <f t="shared" si="17"/>
+        <v>322.79418397569953</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="9"/>
-        <v>322.79418397569953</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="10"/>
         <v>16.905816024300464</v>
       </c>
       <c r="L28" s="5">
@@ -6269,15 +7484,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N28">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O28">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="13"/>
         <v>320.89768597537005</v>
       </c>
       <c r="Q28" s="5">
@@ -6293,23 +7508,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U28">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V28">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W28">
+        <v>321.9950195528956</v>
+      </c>
+      <c r="X28" s="5">
         <f t="shared" si="16"/>
-        <v>321.9950195528956</v>
-      </c>
-      <c r="X28" s="5">
-        <f t="shared" si="17"/>
         <v>17.70498044710439</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1">
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -6336,11 +7551,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I29">
+        <f t="shared" si="17"/>
+        <v>330.01238025438818</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="9"/>
-        <v>330.01238025438818</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="10"/>
         <v>110.3876197456118</v>
       </c>
       <c r="L29" s="5">
@@ -6352,15 +7567,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N29">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O29">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="13"/>
         <v>328.2101450604892</v>
       </c>
       <c r="Q29" s="5">
@@ -6376,23 +7591,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U29">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V29">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W29">
+        <v>329.33862394183319</v>
+      </c>
+      <c r="X29" s="5">
         <f t="shared" si="16"/>
-        <v>329.33862394183319</v>
-      </c>
-      <c r="X29" s="5">
-        <f t="shared" si="17"/>
         <v>111.06137605816679</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1">
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -6419,11 +7634,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I30">
+        <f t="shared" si="17"/>
+        <v>373.33467946334201</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="9"/>
-        <v>373.33467946334201</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="10"/>
         <v>-57.434679463342036</v>
       </c>
       <c r="L30" s="5">
@@ -6435,15 +7650,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N30">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O30">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="13"/>
         <v>369.43314002325195</v>
       </c>
       <c r="Q30" s="5">
@@ -6459,23 +7674,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U30">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V30">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W30">
+        <v>371.64452436830214</v>
+      </c>
+      <c r="X30" s="5">
         <f t="shared" si="16"/>
-        <v>371.64452436830214</v>
-      </c>
-      <c r="X30" s="5">
-        <f t="shared" si="17"/>
         <v>-55.744524368302166</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1">
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -6502,11 +7717,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I31">
+        <f t="shared" si="17"/>
+        <v>350.38974197276849</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="9"/>
-        <v>350.38974197276849</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="10"/>
         <v>88.910258027231521</v>
       </c>
       <c r="L31" s="5">
@@ -6518,15 +7733,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N31">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O31">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="13"/>
         <v>349.02890763487312</v>
       </c>
       <c r="Q31" s="5">
@@ -6542,23 +7757,23 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U31">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V31">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W31">
+        <v>350.19983730148226</v>
+      </c>
+      <c r="X31" s="5">
         <f t="shared" si="16"/>
-        <v>350.19983730148226</v>
-      </c>
-      <c r="X31" s="5">
-        <f t="shared" si="17"/>
         <v>89.10016269851775</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1">
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -6585,11 +7800,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I32">
+        <f t="shared" si="17"/>
+        <v>384.84876856041961</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="9"/>
-        <v>384.84876856041961</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="10"/>
         <v>16.451231439580397</v>
       </c>
       <c r="L32" s="5">
@@ -6601,15 +7816,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N32">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O32">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="13"/>
         <v>381.6897500460945</v>
       </c>
       <c r="Q32" s="5">
@@ -6625,19 +7840,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U32">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V32">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W32">
+        <v>383.75904988469529</v>
+      </c>
+      <c r="X32" s="5">
         <f t="shared" si="16"/>
-        <v>383.75904988469529</v>
-      </c>
-      <c r="X32" s="5">
-        <f t="shared" si="17"/>
         <v>17.540950115304724</v>
       </c>
     </row>
@@ -6668,11 +7883,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I33">
+        <f t="shared" si="17"/>
+        <v>390.28986404536477</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="9"/>
-        <v>390.28986404536477</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="10"/>
         <v>47.110135954635211</v>
       </c>
       <c r="L33" s="5">
@@ -6684,15 +7899,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N33">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O33">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="13"/>
         <v>387.67033244100139</v>
       </c>
       <c r="Q33" s="5">
@@ -6708,19 +7923,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U33">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V33">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V33">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W33">
+        <v>389.61325503845939</v>
+      </c>
+      <c r="X33" s="5">
         <f t="shared" si="16"/>
-        <v>389.61325503845939</v>
-      </c>
-      <c r="X33" s="5">
-        <f t="shared" si="17"/>
         <v>47.786744961540592</v>
       </c>
     </row>
@@ -6752,11 +7967,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I34">
+        <f t="shared" si="17"/>
+        <v>407.49261316865801</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="9"/>
-        <v>407.49261316865801</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="10"/>
         <v>168.00738683134199</v>
       </c>
       <c r="L34" s="5">
@@ -6768,15 +7983,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N34">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O34">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="13"/>
         <v>404.49082758324221</v>
       </c>
       <c r="Q34" s="5">
@@ -6792,19 +8007,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U34">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V34">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V34">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W34">
+        <v>406.71429135609401</v>
+      </c>
+      <c r="X34" s="5">
         <f t="shared" si="16"/>
-        <v>406.71429135609401</v>
-      </c>
-      <c r="X34" s="5">
-        <f t="shared" si="17"/>
         <v>168.78570864390599</v>
       </c>
     </row>
@@ -6835,11 +8050,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I35">
+        <f t="shared" si="17"/>
+        <v>471.18479274518762</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="9"/>
-        <v>471.18479274518762</v>
-      </c>
-      <c r="J35" s="5">
-        <f t="shared" si="10"/>
         <v>-63.584792745187599</v>
       </c>
       <c r="L35" s="5">
@@ -6851,15 +8066,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N35">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O35">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="13"/>
         <v>465.15387561589819</v>
       </c>
       <c r="Q35" s="5">
@@ -6875,19 +8090,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U35">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V35">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W35">
+        <v>468.95458119674805</v>
+      </c>
+      <c r="X35" s="5">
         <f t="shared" si="16"/>
-        <v>468.95458119674805</v>
-      </c>
-      <c r="X35" s="5">
-        <f t="shared" si="17"/>
         <v>-61.354581196748029</v>
       </c>
     </row>
@@ -6919,11 +8134,11 @@
         <v>-0.58599915599999997</v>
       </c>
       <c r="I36">
+        <f t="shared" si="17"/>
+        <v>443.32840528623439</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="9"/>
-        <v>443.32840528623439</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" si="10"/>
         <v>238.67159471376561</v>
       </c>
       <c r="L36" s="5">
@@ -6935,15 +8150,15 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N36">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O36">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="13"/>
         <v>440.7195017948593</v>
       </c>
       <c r="Q36" s="5">
@@ -6959,19 +8174,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U36">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V36">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V36">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W36">
+        <v>443.14939282181217</v>
+      </c>
+      <c r="X36" s="5">
         <f t="shared" si="16"/>
-        <v>443.14939282181217</v>
-      </c>
-      <c r="X36" s="5">
-        <f t="shared" si="17"/>
         <v>238.85060717818783</v>
       </c>
     </row>
@@ -7001,8 +8216,8 @@
         <f t="shared" si="8"/>
         <v>-0.58599915599999997</v>
       </c>
-      <c r="I37" s="13">
-        <f t="shared" si="9"/>
+      <c r="I37" s="12">
+        <f t="shared" si="17"/>
         <v>533.52857941167883</v>
       </c>
       <c r="L37" s="5">
@@ -7014,22 +8229,21 @@
         <v>9.0336391121740007</v>
       </c>
       <c r="N37">
+        <f t="shared" si="10"/>
+        <v>0.97323755199999995</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="11"/>
-        <v>0.97323755199999995</v>
-      </c>
-      <c r="O37">
+        <v>-0.60802571699999997</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="12"/>
-        <v>-0.60802571699999997</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="13"/>
         <v>526.07690165687609</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="5"/>
         <v>-50.776901656876078</v>
       </c>
-      <c r="R37" s="12"/>
       <c r="S37" s="5">
         <f t="shared" si="6"/>
         <v>351.449364</v>
@@ -7039,19 +8253,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U37">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V37">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W37">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W37">
+        <v>530.9144337423611</v>
+      </c>
+      <c r="X37" s="5">
         <f t="shared" si="16"/>
-        <v>530.9144337423611</v>
-      </c>
-      <c r="X37" s="5">
-        <f t="shared" si="17"/>
         <v>-55.614433742361086</v>
       </c>
     </row>
@@ -7086,8 +8300,8 @@
         <f t="shared" ref="O38" si="20">+O37</f>
         <v>-0.60802571699999997</v>
       </c>
-      <c r="P38" s="13">
-        <f t="shared" si="13"/>
+      <c r="P38" s="12">
+        <f t="shared" si="12"/>
         <v>502.48710961473455</v>
       </c>
       <c r="S38" s="5">
@@ -7099,19 +8313,19 @@
         <v>8.1237263930564119</v>
       </c>
       <c r="U38">
+        <f t="shared" si="13"/>
+        <v>0.97688507300000005</v>
+      </c>
+      <c r="V38">
         <f t="shared" si="14"/>
-        <v>0.97688507300000005</v>
-      </c>
-      <c r="V38">
+        <v>-0.60056331500000004</v>
+      </c>
+      <c r="W38">
         <f t="shared" si="15"/>
-        <v>-0.60056331500000004</v>
-      </c>
-      <c r="W38">
+        <v>505.83719028011666</v>
+      </c>
+      <c r="X38" s="5">
         <f t="shared" si="16"/>
-        <v>505.83719028011666</v>
-      </c>
-      <c r="X38" s="5">
-        <f t="shared" si="17"/>
         <v>75.462809719883296</v>
       </c>
     </row>
@@ -7144,8 +8358,8 @@
         <f t="shared" ref="V39" si="23">+V38</f>
         <v>-0.60056331500000004</v>
       </c>
-      <c r="W39" s="13">
-        <f t="shared" si="16"/>
+      <c r="W39" s="12">
+        <f t="shared" si="15"/>
         <v>530.66682416336903</v>
       </c>
     </row>
@@ -7154,6 +8368,3532 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABF5234-D3CB-423A-BCB6-A43A3FFF996B}">
+  <dimension ref="A2:U42"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="5" customWidth="1"/>
+    <col min="17" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21">
+      <c r="G2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>266</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5:F38" si="0">E5*(1-G5)</f>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G5">
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H5">
+        <f>E5+G5*C4</f>
+        <v>314.02186999999998</v>
+      </c>
+      <c r="I5" s="4">
+        <f>+C5-H5</f>
+        <v>-48.021869999999979</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5">
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L39" si="1">K5*(1-M5)</f>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N5">
+        <f>K5+M5*C4</f>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="O5" s="4">
+        <f>+C5-N5</f>
+        <v>-36.364308999999992</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="11">
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" ref="R5:R40" si="2">Q5*(1-S5)</f>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T5">
+        <f>Q5+S5*C4</f>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="U5" s="4">
+        <f>C5-T5</f>
+        <v>-51.058361999999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>145.9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G6">
+        <f>+G5</f>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H38" si="3">F6 + G6*C5</f>
+        <v>279.56760807815738</v>
+      </c>
+      <c r="I6">
+        <f>+C6-H6</f>
+        <v>-133.66760807815737</v>
+      </c>
+      <c r="K6" s="5">
+        <f>+K5</f>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M6" s="5">
+        <f>+M5</f>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N6">
+        <f>L6 + M6*C5</f>
+        <v>278.68919685953182</v>
+      </c>
+      <c r="O6">
+        <f>+C6-N6</f>
+        <v>-132.78919685953181</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>+Q5</f>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S6" s="5">
+        <f>+S5</f>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T6">
+        <f>R6 + S6*C5</f>
+        <v>281.47258760126061</v>
+      </c>
+      <c r="U6">
+        <f>C6-T6</f>
+        <v>-135.57258760126061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>183.1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G38" si="4">+G6</f>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>193.3994339355574</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I37" si="5">+C7-H7</f>
+        <v>-10.299433935557403</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ref="K7:K39" si="6">+K6</f>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" ref="M7:M39" si="7">+M6</f>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N39" si="8">L7 + M7*C6</f>
+        <v>200.49766658543183</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O38" si="9">+C7-N7</f>
+        <v>-17.397666585431836</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" ref="Q7:Q40" si="10">+Q6</f>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" ref="S7:S40" si="11">+S6</f>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T40" si="12">R7 + S7*C6</f>
+        <v>197.76736601016063</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U39" si="13">C7-T7</f>
+        <v>-14.667366010160634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>119.3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>220.08932634275737</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>-100.78932634275738</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="8"/>
+        <v>224.71685831063184</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="9"/>
+        <v>-105.41685831063184</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="12"/>
+        <v>223.69437885936063</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="13"/>
+        <v>-104.39437885936063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>180.3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>174.31472592395738</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>5.9852740760426286</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="8"/>
+        <v>183.17964239483183</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="9"/>
+        <v>-2.8796423948318193</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="12"/>
+        <v>179.22815789756061</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="13"/>
+        <v>1.0718421024394047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" hidden="1">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>168.5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>218.08040970995739</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>-49.580409709957394</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="8"/>
+        <v>222.89390839583183</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="9"/>
+        <v>-54.393908395831829</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="12"/>
+        <v>221.74288326856063</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="13"/>
+        <v>-53.242883268560632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" hidden="1">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>231.8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>209.61426104315737</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>22.185738956842641</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="8"/>
+        <v>215.21147661203184</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="9"/>
+        <v>16.588523387968166</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="12"/>
+        <v>213.51872327876063</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="13"/>
+        <v>18.281276721239379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>224.5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>255.0301263489574</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>-30.530126348957396</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="8"/>
+        <v>256.42316575733184</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="9"/>
+        <v>-31.923165757331844</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="12"/>
+        <v>257.63646288506061</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="13"/>
+        <v>-33.13646288506061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" hidden="1">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>192.8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>249.79259369915738</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>-56.992593699157368</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="8"/>
+        <v>251.67047490803182</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="9"/>
+        <v>-58.870474908031809</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="12"/>
+        <v>252.54863509476064</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="13"/>
+        <v>-59.74863509476063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" hidden="1">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>122.9</v>
+      </c>
+      <c r="E14" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>227.04878753495737</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>-104.14878753495736</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="8"/>
+        <v>231.03207765833184</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>-108.13207765833184</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="12"/>
+        <v>230.45491715606062</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="13"/>
+        <v>-107.55491715606061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" hidden="1">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>336.5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>176.89761873755737</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>159.60238126244263</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>185.52343514243182</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="9"/>
+        <v>150.97656485756818</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="12"/>
+        <v>181.73722365716063</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="13"/>
+        <v>154.76277634283937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>185.9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>330.14925901115737</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>-144.24925901115736</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="8"/>
+        <v>324.5884715000318</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="9"/>
+        <v>-138.6884715000318</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="12"/>
+        <v>330.6084587267606</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="13"/>
+        <v>-144.7084587267606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" hidden="1">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>194.3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>222.09824297555738</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>-27.798242975557372</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="8"/>
+        <v>226.53980822543184</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="9"/>
+        <v>-32.23980822543183</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="12"/>
+        <v>225.64587445016065</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="13"/>
+        <v>-31.345874450160636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>149.5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>228.12499287395738</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>-78.624992873957382</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="8"/>
+        <v>232.00865796983183</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="9"/>
+        <v>-82.50865796983183</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="12"/>
+        <v>231.50036122256063</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="13"/>
+        <v>-82.000361222560628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" hidden="1">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>210.1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>195.98232674915738</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>14.117673250842614</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
+        <v>202.84145933303182</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="9"/>
+        <v>7.2585406669681731</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="12"/>
+        <v>200.27643176976062</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="13"/>
+        <v>9.8235682302393741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>273.3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>239.46102244475736</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>33.83897755524265</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="8"/>
+        <v>242.29530391763183</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="9"/>
+        <v>31.004696082368184</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>242.51237205636062</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="13"/>
+        <v>30.787627943639393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" hidden="1">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>191.4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>284.80514072795739</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>-93.405140727957388</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>283.44188770883181</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>-92.041887708831808</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R21" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>286.56041539156064</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="13"/>
+        <v>-95.160415391560633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>287</v>
+      </c>
+      <c r="E22" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>226.04432921855738</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>60.95567078144262</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>230.12060270093184</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>56.87939729906816</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R22" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>229.47916936066065</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="13"/>
+        <v>57.520830639339351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>226</v>
+      </c>
+      <c r="E23" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>294.63448282415737</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>-68.634482824157374</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>292.36132122053186</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>-66.361321220531863</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R23" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>296.10880453226065</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>-70.108804532260649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" hidden="1">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="E24" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>250.86879903815736</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>52.73120096184266</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>252.64705521953184</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>50.952944780468187</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R24" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>253.59407916126065</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="13"/>
+        <v>50.005920838739371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" hidden="1">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>289.89999999999998</v>
+      </c>
+      <c r="E25" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>306.54448857575738</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>-16.644488575757407</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>303.16881000113187</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>-13.268810001131897</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R25" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>307.67838553486064</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="13"/>
+        <v>-17.778385534860661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" hidden="1">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>421.6</v>
+      </c>
+      <c r="E26" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>296.71514647955735</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>124.88485352044268</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>294.24937648943182</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>127.3506235105682</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R26" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="12"/>
+        <v>298.12999639416063</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="13"/>
+        <v>123.47000360583939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" hidden="1">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>264.5</v>
+      </c>
+      <c r="E27" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>391.20597524375739</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>-126.70597524375739</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>379.99312783913183</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>-115.49312783913183</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R27" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="12"/>
+        <v>389.91998543286064</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="13"/>
+        <v>-125.41998543286064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" hidden="1">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>342.3</v>
+      </c>
+      <c r="E28" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>278.49140273915737</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>63.808597260842646</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>277.71261654803186</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>64.587383451968151</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R28" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="12"/>
+        <v>280.4271435347606</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="13"/>
+        <v>61.872856465239408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" hidden="1">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>339.7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>334.31058632195737</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>5.3894136780426152</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>328.36458203783184</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>11.335417962168151</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R29" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="12"/>
+        <v>334.65084245056062</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="13"/>
+        <v>5.0491575494393715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>440.4</v>
+      </c>
+      <c r="E30" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>332.44516373435738</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>107.9548362656426</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>326.67184283123186</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>113.72815716876812</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R30" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="12"/>
+        <v>332.83873940196059</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="13"/>
+        <v>107.56126059803938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="E31" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>404.69441549255737</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>-88.794415492557391</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>392.23293440993183</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>-76.332934409931852</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R31" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="12"/>
+        <v>403.0228843996606</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="13"/>
+        <v>-87.12288439966062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>439.3</v>
+      </c>
+      <c r="E32" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>315.36937235555735</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>123.93062764444267</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>311.17676855543181</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>128.12323144456821</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R32" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="12"/>
+        <v>316.25102688016062</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="13"/>
+        <v>123.04897311983939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>401.3</v>
+      </c>
+      <c r="E33" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>403.90519824395733</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>-2.605198243957318</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>391.51677551483186</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="9"/>
+        <v>9.783224485168148</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R33" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="12"/>
+        <v>402.25622541756059</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="13"/>
+        <v>-0.95622541756057444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>437.4</v>
+      </c>
+      <c r="E34" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>376.64132965595741</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>60.758670344042571</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="8"/>
+        <v>366.77674095683182</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="9"/>
+        <v>70.623259043168161</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R34" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="12"/>
+        <v>375.77164239956062</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="13"/>
+        <v>61.628357600439358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4">
+        <v>575.5</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>402.54200481455734</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>172.95799518544266</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M35" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="8"/>
+        <v>390.2797737869318</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>185.2202262130682</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R35" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="12"/>
+        <v>400.93199626666058</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="13"/>
+        <v>174.56800373333942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>407.6</v>
+      </c>
+      <c r="E36" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>501.62464302515741</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>-94.024643025157388</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="8"/>
+        <v>480.19026779903186</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>-72.590267799031835</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R36" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="12"/>
+        <v>497.18254665576058</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="13"/>
+        <v>-89.582546655760552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4">
+        <v>682</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>381.16139207975743</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>300.83860792024257</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="8"/>
+        <v>370.87837826513186</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="9"/>
+        <v>311.12162173486814</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R37" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S37" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="12"/>
+        <v>380.16250747886062</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="13"/>
+        <v>301.83749252113938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>475.3</v>
+      </c>
+      <c r="E38" s="5">
+        <v>314.02186999999998</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="0"/>
+        <v>88.720527962157377</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0.71747022599999999</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="3"/>
+        <v>578.03522209415735</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="8"/>
+        <v>549.52746991553181</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="9"/>
+        <v>-74.227469915531799</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R38" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="12"/>
+        <v>571.40907537726059</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="13"/>
+        <v>-96.109075377260581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4">
+        <v>581.29999999999995</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5">
+        <f t="shared" si="6"/>
+        <v>302.36430899999999</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="1"/>
+        <v>105.50895495353183</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="7"/>
+        <v>0.65105354100000001</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" si="8"/>
+        <v>414.95470299083183</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R39" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="12"/>
+        <v>427.34688301356061</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="13"/>
+        <v>153.95311698643934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>646.9</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="Q40" s="5">
+        <f t="shared" si="10"/>
+        <v>317.05836199999999</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" si="2"/>
+        <v>96.080506475260634</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69696271099999996</v>
+      </c>
+      <c r="T40" s="12">
+        <f t="shared" si="12"/>
+        <v>501.22493037956059</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D751935B-21B2-4AB4-BEAC-ABE19681CF89}">
+  <dimension ref="A1:X42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC48" sqref="AC48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="B4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>266</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>145.9</v>
+      </c>
+      <c r="D6">
+        <f>+C6-C5</f>
+        <v>-120.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>183.1</v>
+      </c>
+      <c r="D7">
+        <f>+C7-C6</f>
+        <v>37.199999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" hidden="1">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>119.3</v>
+      </c>
+      <c r="D8">
+        <f>+C8-C7</f>
+        <v>-63.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" hidden="1">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>180.3</v>
+      </c>
+      <c r="D9">
+        <f>+C9-C8</f>
+        <v>61.000000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" hidden="1">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>168.5</v>
+      </c>
+      <c r="D10">
+        <f>+C10-C9</f>
+        <v>-11.800000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" hidden="1">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>231.8</v>
+      </c>
+      <c r="D11">
+        <f>+C11-C10</f>
+        <v>63.300000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" hidden="1">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>224.5</v>
+      </c>
+      <c r="D12">
+        <f>+C12-C11</f>
+        <v>-7.3000000000000114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" hidden="1">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>192.8</v>
+      </c>
+      <c r="D13">
+        <f>+C13-C12</f>
+        <v>-31.699999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" hidden="1">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>122.9</v>
+      </c>
+      <c r="D14">
+        <f>+C14-C13</f>
+        <v>-69.900000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" hidden="1">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>336.5</v>
+      </c>
+      <c r="D15">
+        <f>+C15-C14</f>
+        <v>213.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" hidden="1">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>185.9</v>
+      </c>
+      <c r="D16">
+        <f>+C16-C15</f>
+        <v>-150.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" hidden="1">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>194.3</v>
+      </c>
+      <c r="D17">
+        <f>+C17-C16</f>
+        <v>8.4000000000000057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" hidden="1">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>149.5</v>
+      </c>
+      <c r="D18">
+        <f>+C18-C17</f>
+        <v>-44.800000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" hidden="1">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>210.1</v>
+      </c>
+      <c r="D19">
+        <f>+C19-C18</f>
+        <v>60.599999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" hidden="1">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>273.3</v>
+      </c>
+      <c r="D20">
+        <f>+C20-C19</f>
+        <v>63.200000000000017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" hidden="1">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>191.4</v>
+      </c>
+      <c r="D21">
+        <f>+C21-C20</f>
+        <v>-81.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" hidden="1">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>287</v>
+      </c>
+      <c r="D22">
+        <f>+C22-C21</f>
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" hidden="1">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>226</v>
+      </c>
+      <c r="D23">
+        <f>+C23-C22</f>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" hidden="1">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="D24">
+        <f>+C24-C23</f>
+        <v>77.600000000000023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>289.89999999999998</v>
+      </c>
+      <c r="D25">
+        <f>+C25-C24</f>
+        <v>-13.700000000000045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" hidden="1">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>421.6</v>
+      </c>
+      <c r="D26">
+        <f>+C26-C25</f>
+        <v>131.70000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>264.5</v>
+      </c>
+      <c r="D27">
+        <f>+C27-C26</f>
+        <v>-157.10000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" hidden="1">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>342.3</v>
+      </c>
+      <c r="D28">
+        <f>+C28-C27</f>
+        <v>77.800000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" hidden="1">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>339.7</v>
+      </c>
+      <c r="D29">
+        <f>+C29-C28</f>
+        <v>-2.6000000000000227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" hidden="1">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>440.4</v>
+      </c>
+      <c r="D30">
+        <f>+C30-C29</f>
+        <v>100.69999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="D31">
+        <f>+C31-C30</f>
+        <v>-124.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>439.3</v>
+      </c>
+      <c r="D32">
+        <f>+C32-C31</f>
+        <v>123.40000000000003</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>401.3</v>
+      </c>
+      <c r="D33">
+        <f>+C33-C32</f>
+        <v>-38</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="X33" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>437.4</v>
+      </c>
+      <c r="D34">
+        <f>+C34-C33</f>
+        <v>36.099999999999966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4">
+        <v>575.5</v>
+      </c>
+      <c r="D35" s="4">
+        <f>+C35-C34</f>
+        <v>138.10000000000002</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="T35" s="15">
+        <f>-0.83043403</f>
+        <v>-0.83043403000000005</v>
+      </c>
+      <c r="U35" s="4">
+        <v>-0.43314417</v>
+      </c>
+      <c r="V35" s="4">
+        <v>-0.40271400000000002</v>
+      </c>
+      <c r="W35" s="4">
+        <f>+T35*D34+U35*D33+V35*D32</f>
+        <v>-63.214097622999986</v>
+      </c>
+      <c r="X35" s="20">
+        <f>+W35+C34</f>
+        <v>374.18590237699999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>407.6</v>
+      </c>
+      <c r="D36">
+        <f>+C36-C35</f>
+        <v>-167.89999999999998</v>
+      </c>
+      <c r="T36" s="5">
+        <f>-0.78425601</f>
+        <v>-0.78425601</v>
+      </c>
+      <c r="U36">
+        <v>-0.31531557999999998</v>
+      </c>
+      <c r="V36">
+        <v>-0.23329121</v>
+      </c>
+      <c r="W36">
+        <f>+T36*D35+U36*D34+V36*D33</f>
+        <v>-110.82358143900001</v>
+      </c>
+      <c r="X36" s="12">
+        <f>+W36+C35</f>
+        <v>464.67641856099999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4">
+        <v>682</v>
+      </c>
+      <c r="D37" s="4">
+        <f>+C37-C36</f>
+        <v>274.39999999999998</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="T37" s="15">
+        <f>-0.84966746</f>
+        <v>-0.84966746000000004</v>
+      </c>
+      <c r="U37" s="4">
+        <v>-0.37182873</v>
+      </c>
+      <c r="V37" s="4">
+        <v>-0.23823902</v>
+      </c>
+      <c r="W37" s="4">
+        <f>+T37*D36+U37*D35+V37*D34</f>
+        <v>82.709190298999985</v>
+      </c>
+      <c r="X37" s="20">
+        <f>+W37+C36</f>
+        <v>490.30919029900002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>475.3</v>
+      </c>
+      <c r="D38">
+        <f>+C38-C37</f>
+        <v>-206.7</v>
+      </c>
+      <c r="L38">
+        <f>+D38+C37</f>
+        <v>475.3</v>
+      </c>
+      <c r="R38">
+        <f>+D38+C37</f>
+        <v>475.3</v>
+      </c>
+      <c r="T38" s="5">
+        <f>-0.89979195</f>
+        <v>-0.89979195000000001</v>
+      </c>
+      <c r="U38">
+        <v>-0.21129096999999999</v>
+      </c>
+      <c r="V38">
+        <v>-7.8072039999999995E-2</v>
+      </c>
+      <c r="W38">
+        <f>+T38*D37+U38*D36+V38*D35</f>
+        <v>-222.20890594100001</v>
+      </c>
+      <c r="X38" s="12">
+        <f>+W38+C37</f>
+        <v>459.79109405899999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4">
+        <v>581.29999999999995</v>
+      </c>
+      <c r="D39" s="4">
+        <f>+C39-C38</f>
+        <v>105.99999999999994</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
+        <v>-0.77796387</v>
+      </c>
+      <c r="K39" s="4">
+        <f>J39*D38</f>
+        <v>160.805131929</v>
+      </c>
+      <c r="L39" s="4">
+        <f>+K39+C38</f>
+        <v>636.10513192899998</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="15">
+        <v>-0.88764619</v>
+      </c>
+      <c r="O39" s="4">
+        <v>-0.20614687000000001</v>
+      </c>
+      <c r="P39" s="4">
+        <v>-7.3600059999999995E-2</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>+N39*D38+O39*D37+P39*D36</f>
+        <v>139.26721641899996</v>
+      </c>
+      <c r="R39" s="4">
+        <f>+Q39+C38</f>
+        <v>614.56721641900003</v>
+      </c>
+      <c r="T39" s="15">
+        <f>-0.88764619</f>
+        <v>-0.88764619</v>
+      </c>
+      <c r="U39" s="4">
+        <v>-0.20614687000000001</v>
+      </c>
+      <c r="V39" s="4">
+        <v>-7.3600059999999995E-2</v>
+      </c>
+      <c r="W39" s="4">
+        <f>+T39*D38+U39*D37+V39*D36</f>
+        <v>139.26721641899996</v>
+      </c>
+      <c r="X39" s="20">
+        <f>+W39+C38</f>
+        <v>614.56721641900003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>646.9</v>
+      </c>
+      <c r="D40">
+        <f>+C40-C39</f>
+        <v>65.600000000000023</v>
+      </c>
+      <c r="F40" s="5">
+        <v>-0.75167519000000005</v>
+      </c>
+      <c r="G40">
+        <f>$F$40*D39</f>
+        <v>-79.677570139999958</v>
+      </c>
+      <c r="H40">
+        <f>+G40+C39</f>
+        <v>501.62242986000001</v>
+      </c>
+      <c r="J40">
+        <v>-0.75167519000000005</v>
+      </c>
+      <c r="K40">
+        <f>J40*D39</f>
+        <v>-79.677570139999958</v>
+      </c>
+      <c r="L40">
+        <f>+K40+C39</f>
+        <v>501.62242986000001</v>
+      </c>
+      <c r="N40" s="5">
+        <f>-0.89126949</f>
+        <v>-0.89126949</v>
+      </c>
+      <c r="O40">
+        <v>-0.23513901000000001</v>
+      </c>
+      <c r="P40">
+        <v>-7.7463450000000003E-2</v>
+      </c>
+      <c r="Q40">
+        <f>+N40*D39+O40*D38+P40*D37</f>
+        <v>-67.127303252999951</v>
+      </c>
+      <c r="R40">
+        <f>+Q40+C39</f>
+        <v>514.17269674700003</v>
+      </c>
+      <c r="T40" s="5">
+        <f>-0.89126949</f>
+        <v>-0.89126949</v>
+      </c>
+      <c r="U40">
+        <v>-0.23513901000000001</v>
+      </c>
+      <c r="V40">
+        <v>-7.7463450000000003E-2</v>
+      </c>
+      <c r="W40">
+        <f>+T40*D39+U40*D38+V40*D37</f>
+        <v>-67.127303252999951</v>
+      </c>
+      <c r="X40" s="12">
+        <f>+W40+C39</f>
+        <v>514.17269674700003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="Q42" t="s">
+        <v>47</v>
+      </c>
+      <c r="W42" t="s">
         <v>44</v>
       </c>
     </row>
